--- a/output/fit_clients/fit_round_13.xlsx
+++ b/output/fit_clients/fit_round_13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>6492066135.165172</v>
+        <v>10192260551.66449</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1916508895774434</v>
+        <v>0.1225880189842628</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2918952098700345</v>
+        <v>0.1636995550703674</v>
       </c>
       <c r="I2" t="n">
-        <v>1.126784243749557</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7.592338155556678</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7321644217614436</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.050950279672193</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>3790494617.322281</v>
+        <v>10110039616.50928</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3835281663127597</v>
+        <v>0.1557118913193286</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8807471321973965</v>
+        <v>0.2654464866496281</v>
       </c>
       <c r="I3" t="n">
-        <v>5.289038371471785</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.833837168301747</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7951215309845118</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.068593451388489</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>9976156706.148405</v>
+        <v>11796653362.36282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1488743785554872</v>
+        <v>0.111022589184368</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1606184314295977</v>
+        <v>0.1281739081100356</v>
       </c>
       <c r="I4" t="n">
-        <v>5.403395957881986</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.468207622081104</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7448020695727962</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7.42783376937482</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>10136579360.11794</v>
+        <v>8187890045.121226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1431589502184014</v>
+        <v>0.1314831151941856</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1430783609195299</v>
+        <v>0.1910227115028914</v>
       </c>
       <c r="I5" t="n">
-        <v>5.279508572604268</v>
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01687229370702229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.206474229631023</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6325278644051283</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.444083058471544</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4078386939.928164</v>
+        <v>6594103437.103798</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2999360158851299</v>
+        <v>0.2041773340139382</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6242112916419322</v>
+        <v>0.4143182741002374</v>
       </c>
       <c r="I6" t="n">
-        <v>4.450416071130313</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.544316257389162</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7522560001213718</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7.500803745038275</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>4988954793.722258</v>
+        <v>7850955775.538587</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2357419857722358</v>
+        <v>0.20418745511148</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4272063170192088</v>
+        <v>0.4143493631772837</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8403374662059162</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.816487254284264</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8001710424039232</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.186933593794198</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>6953394948.656783</v>
+        <v>8281587477.241431</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2199966737536609</v>
+        <v>0.1454937719744228</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3788855496645018</v>
+        <v>0.2340593867556873</v>
       </c>
       <c r="I8" t="n">
-        <v>5.56540253862977</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.448541245928917</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7224856079426091</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.001170912923264</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>8057298392.43761</v>
+        <v>12837783596.75881</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1443423221227071</v>
+        <v>0.1038551164187418</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1467100094009697</v>
+        <v>0.1061575099756799</v>
       </c>
       <c r="I9" t="n">
-        <v>4.231230697177428</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.753756467243061</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7496137104027262</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.238517740811462</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>9109740233.962513</v>
+        <v>12718067322.71021</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15900812018763</v>
+        <v>0.1075101700050307</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1917178578024642</v>
+        <v>0.1173847748135828</v>
       </c>
       <c r="I10" t="n">
-        <v>5.269978773736751</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>7.427495408672885</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7564391602869208</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.701287797065532</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>11035917607.18801</v>
+        <v>8527938067.854827</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09755140698937433</v>
+        <v>0.1778421463585396</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003113431460543921</v>
+        <v>0.3334242134844978</v>
       </c>
       <c r="I11" t="n">
-        <v>0.905431546305751</v>
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9455861488838907</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1580507141681045</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.347652650092105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.9472699509848743</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13.59774636960538</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>11220269152.16182</v>
+        <v>7110153671.608032</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1129905836310294</v>
+        <v>0.179043041655117</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05049470035947329</v>
+        <v>0.3371130156371785</v>
       </c>
       <c r="I12" t="n">
-        <v>4.612422651878097</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.499969244556843</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7371698915591718</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.243428586626593</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9221817740.167774</v>
+        <v>4120762803.253626</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1343521965960541</v>
+        <v>0.3477041505200689</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.11605132630544</v>
+        <v>0.8551910389484115</v>
       </c>
       <c r="I13" t="n">
-        <v>1.118590688179978</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>7.511280817456296</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7691753490799386</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.872226164142475</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10075860464.92522</v>
+        <v>9575666847.557035</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1375224790799328</v>
+        <v>0.1682310877817332</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1257806020524995</v>
+        <v>0.3039018282534882</v>
       </c>
       <c r="I14" t="n">
-        <v>5.041263600916349</v>
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.966107945081236</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3751925705073544</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.149151487359695</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8286465284850594</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13.42377908234149</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8831552426.873838</v>
+        <v>3452802881.194062</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1663895223594523</v>
+        <v>0.2844851802429877</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.214370633223833</v>
+        <v>0.6610006925351974</v>
       </c>
       <c r="I15" t="n">
-        <v>5.346217164676885</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.295446045838185</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6025083795230513</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.754721544622841</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>4353939455.112206</v>
+        <v>6522134804.894271</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3591634302961845</v>
+        <v>0.2044222558846073</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8059742258664911</v>
+        <v>0.4150706030720784</v>
       </c>
       <c r="I16" t="n">
-        <v>5.689289923907487</v>
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9585578091537174</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5040295590228685</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.741321796080722</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8788764793642029</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12.83620779120334</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>6833901101.105772</v>
+        <v>15301204733.01454</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.169799028817119</v>
+        <v>0.09381128774147196</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2248340631095618</v>
+        <v>0.07530578047730982</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8729915037805143</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.749242159502793</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7696746492350894</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.644250825198996</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6862117360.259802</v>
+        <v>9405337371.436752</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1778803357501578</v>
+        <v>0.1166916577956143</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2496347753325192</v>
+        <v>0.1455876431429408</v>
       </c>
       <c r="I18" t="n">
-        <v>4.440886272262796</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7.5000034308512</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6978069989756664</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.45613654866213</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>9544300314.389481</v>
+        <v>11779345753.5646</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1377716266971962</v>
+        <v>0.1111857167112755</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.126545210847585</v>
+        <v>0.1286749885740303</v>
       </c>
       <c r="I19" t="n">
-        <v>4.783959031493398</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7.840443076021065</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7448020695727962</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.055598315434858</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>7424498138.521635</v>
+        <v>9281494826.033318</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2063901318864254</v>
+        <v>0.1594522625653929</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3371284512155709</v>
+        <v>0.2769358226005899</v>
       </c>
       <c r="I20" t="n">
-        <v>5.574932337497287</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.085097806658652</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7780495002110424</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.475892197562196</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>10266614944.07905</v>
+        <v>10410581792.22532</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.137773804482241</v>
+        <v>0.09485637303550869</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1265518942492458</v>
+        <v>0.07851597947914206</v>
       </c>
       <c r="I21" t="n">
-        <v>5.146091388459034</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.899494021114558</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.6152479973493095</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-15.20445396810075</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>10377474853.56211</v>
+        <v>12374659566.1907</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1383212910901233</v>
+        <v>0.1278509159413605</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1282320751804393</v>
+        <v>0.1798656485507979</v>
       </c>
       <c r="I22" t="n">
-        <v>5.222329779399168</v>
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.968554381885438</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2709679558320048</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.26718603052473</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8556969668034061</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13.84675330554339</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>9172380437.201683</v>
+        <v>11796134919.2678</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1365041963285576</v>
+        <v>0.1194655562728569</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.122655595455459</v>
+        <v>0.154108254975907</v>
       </c>
       <c r="I23" t="n">
-        <v>4.555243858672997</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7.811110791269487</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7646472249995817</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.481833708722148</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6129610168.579645</v>
+        <v>14079680253.26047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2243502787582097</v>
+        <v>0.1058570140223786</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3922463223396266</v>
+        <v>0.1123067589658195</v>
       </c>
       <c r="I24" t="n">
-        <v>5.003144405446283</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>7.635040082435501</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.779989774389145</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.964755405347398</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9417446167.18568</v>
+        <v>8092306909.418379</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1404618541499244</v>
+        <v>0.1595786324536243</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1348012463406365</v>
+        <v>0.2773239942564125</v>
       </c>
       <c r="I25" t="n">
-        <v>1.069640797028211</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>7.672037066705285</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7410089081629496</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.148141096553707</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>7105044602.270816</v>
+        <v>6853809968.888872</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1541024836987036</v>
+        <v>0.2258684581316118</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1766629564306443</v>
+        <v>0.480947118069721</v>
       </c>
       <c r="I26" t="n">
-        <v>3.983455926621993</v>
+        <v>5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9636442004834072</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3489832997463163</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.631175753174124</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8762387782080806</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.89359981098749</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>7280488615.083719</v>
+        <v>8584050827.067621</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2011182335985512</v>
+        <v>0.1791207858592387</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.3209495294904552</v>
+        <v>0.3373518232903852</v>
       </c>
       <c r="I27" t="n">
-        <v>5.327157566941851</v>
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9597377390951937</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3500070157630896</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.632199469190898</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8716783027795847</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.8013665864008</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>9799715165.936796</v>
+        <v>10885585540.61717</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1176086835672662</v>
+        <v>0.1390836913963713</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06466718118274507</v>
+        <v>0.2143694778164445</v>
       </c>
       <c r="I28" t="n">
-        <v>4.193111501707361</v>
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9700142445857294</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3902804611607265</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.627572698218581</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.9287637833560551</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13.94770296890252</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>11053752023.99894</v>
+        <v>11296293671.41503</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1234605396463642</v>
+        <v>0.1433021367084575</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08262593461092364</v>
+        <v>0.2273273186811224</v>
       </c>
       <c r="I29" t="n">
-        <v>4.965025209976216</v>
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9616995221627924</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3193347971261621</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.60152725055397</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8941077444909994</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14.28062763926602</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>6200180442.675502</v>
+        <v>5859102445.110624</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2484123380343705</v>
+        <v>0.2132492206280939</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4660903444197794</v>
+        <v>0.4421844793943618</v>
       </c>
       <c r="I30" t="n">
-        <v>1.132065697188647</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7.42812229023352</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7321644217614436</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.215166144995352</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>8248105835.296077</v>
+        <v>9781101833.260815</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1784769993736577</v>
+        <v>0.1004254190115646</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2514658755422922</v>
+        <v>0.09562247397820658</v>
       </c>
       <c r="I31" t="n">
-        <v>5.355746963544401</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.935603418629033</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3523145285711768</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.110687152794503</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>4276982217.627084</v>
+        <v>5358339573.139235</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2743725973803705</v>
+        <v>0.1940709086846405</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5457597501988497</v>
+        <v>0.3832742658366752</v>
       </c>
       <c r="I32" t="n">
-        <v>4.269349892647495</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.9670512014148831</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.741760570446416</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4649714028002813</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6.55766748555921</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>9298956563.33116</v>
+        <v>4140336425.798655</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1180266197099897</v>
+        <v>0.3283461221965229</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06594978486172237</v>
+        <v>0.7957287887796672</v>
       </c>
       <c r="I33" t="n">
-        <v>3.99298572548951</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.537298373589747</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7548768098807073</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7.560237824024398</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>7451797909.187808</v>
+        <v>13855918450.24452</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1887614837575903</v>
+        <v>0.08015501563379948</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2830279161479573</v>
+        <v>0.03335767218514688</v>
       </c>
       <c r="I34" t="n">
-        <v>5.117501991856484</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.319018975122202</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.4664696387320814</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-12.64841174976383</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>11515158788.23491</v>
+        <v>12634404795.68463</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107822296056268</v>
+        <v>0.126673738563976</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03463374941562058</v>
+        <v>0.1762497009688904</v>
       </c>
       <c r="I35" t="n">
-        <v>1.000226271552652</v>
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4296130053344095</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.619214941258409</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7584085497504597</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.548956053750784</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>7994346053.289625</v>
+        <v>6963857831.642978</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1933166377460056</v>
+        <v>0.1741531201985883</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2970072222347097</v>
+        <v>0.322092594750618</v>
       </c>
       <c r="I36" t="n">
-        <v>5.62258133183487</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.483948411180685</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7242156499925793</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7.000364588670901</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>10060738801.61137</v>
+        <v>4272045470.689435</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.119504147131564</v>
+        <v>0.231769401049987</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.07048416682340493</v>
+        <v>0.4990731037423996</v>
       </c>
       <c r="I37" t="n">
-        <v>4.374177680190178</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.258179683268836</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.5296959458309982</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-13.8520985998888</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>8529288369.530683</v>
+        <v>12635977808.12082</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.12560608383545</v>
+        <v>0.09970946523744897</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08921039235223456</v>
+        <v>0.09342327157421292</v>
       </c>
       <c r="I38" t="n">
-        <v>3.897687736814342</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7.524468690371919</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7343989059396006</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7.163509428420091</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>9476834518.0532</v>
+        <v>4969663291.494198</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1229976684492589</v>
+        <v>0.3020145192872273</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08120542980262689</v>
+        <v>0.7148457394645625</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9287568233653296</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>8.218811021790005</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7819188515128733</v>
+      </c>
+      <c r="N39" t="n">
+        <v>7.419566008467461</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>6706324981.09514</v>
+        <v>10310263938.52559</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2077912245422439</v>
+        <v>0.1349040236305439</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3414282626251083</v>
+        <v>0.2015307503303622</v>
       </c>
       <c r="I40" t="n">
-        <v>5.0698529975189</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>7.740163318110581</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7610815967906772</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.481468617702963</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>7440025735.858026</v>
+        <v>8195111877.005464</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1721609246358718</v>
+        <v>0.1431934960269021</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2320824820827374</v>
+        <v>0.2269936060076423</v>
       </c>
       <c r="I41" t="n">
-        <v>4.66007164621568</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7.58979355892501</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7154668807972345</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.71954405701968</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>3831478439.836629</v>
+        <v>11839902345.01919</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3178972214318229</v>
+        <v>0.09557312611417199</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6793324117320234</v>
+        <v>0.08071763711494861</v>
       </c>
       <c r="I42" t="n">
-        <v>1.006864849925515</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>7.541175635402134</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7058511314573426</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.575846993744718</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>7265672733.278685</v>
+        <v>10395085808.75657</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1755712068006065</v>
+        <v>0.09524975918582013</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2425482925348678</v>
+        <v>0.07972434767097313</v>
       </c>
       <c r="I43" t="n">
-        <v>4.641012048480647</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.36490809674858</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5164522022494177</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5.964135948239774</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>10288995195.95738</v>
+        <v>7603258615.334997</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1463844837435415</v>
+        <v>0.2029157218048966</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1529771965144823</v>
+        <v>0.4104429671972754</v>
       </c>
       <c r="I44" t="n">
-        <v>5.47963434882212</v>
+        <v>4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.2149339664494343</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.88453668700013</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6384601397599386</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8.884666108198642</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>3708438884.250346</v>
+        <v>10422859003.43981</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4223866885476916</v>
+        <v>0.09449332852674695</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.07740081201262268</v>
       </c>
       <c r="I45" t="n">
-        <v>5.698819722775005</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.903698924104792</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3553730987615978</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.203763051127163</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>10669335529.07102</v>
+        <v>13363539970.9455</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1006576180000882</v>
+        <v>0.1164300524698409</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01264607834783759</v>
+        <v>0.1447840674343707</v>
       </c>
       <c r="I46" t="n">
-        <v>3.907217535681859</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>7.851829407261801</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7918688349446272</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7.985547291630744</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>7643624854.136334</v>
+        <v>5251237051.48404</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1627775137769481</v>
+        <v>0.2090030214289852</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2032857448334034</v>
+        <v>0.429141386635963</v>
       </c>
       <c r="I47" t="n">
-        <v>4.526654462070447</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>7.587509862673052</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.6978069989756664</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6.368630116840277</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>11168083694.38357</v>
+        <v>5666367381.855327</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1372073483627827</v>
+        <v>0.2695032402752508</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1248134978089147</v>
+        <v>0.614980516953003</v>
       </c>
       <c r="I48" t="n">
-        <v>5.574932337497287</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.575629257868157</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7866935702613982</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.158242147359807</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9377788911.596138</v>
+        <v>7195103854.708889</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1229001431856536</v>
+        <v>0.1569062952803865</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08090613464935717</v>
+        <v>0.2691153493017494</v>
       </c>
       <c r="I49" t="n">
-        <v>4.193111501707361</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>7.678416849864528</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7052399203090027</v>
+      </c>
+      <c r="N49" t="n">
+        <v>6.426381556315527</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>4942073487.377483</v>
+        <v>3571133141.826997</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2803797461812533</v>
+        <v>0.382148224611367</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5641950812567629</v>
+        <v>0.9609932475316231</v>
       </c>
       <c r="I50" t="n">
-        <v>5.041263600916349</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>7.401029334237779</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.7559192137358274</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.717354940478768</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6729871285.920489</v>
+        <v>9204134609.030119</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1856571956456229</v>
+        <v>0.1462784408519067</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2735011704420988</v>
+        <v>0.2364696620333522</v>
       </c>
       <c r="I51" t="n">
-        <v>4.54571405980548</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>7.446217672031687</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7522560001213718</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.59890233039575</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>5517714589.13748</v>
+        <v>13259731219.82623</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2539771906214273</v>
+        <v>0.08454914367522845</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.4831683132085327</v>
+        <v>0.04685515945533191</v>
       </c>
       <c r="I52" t="n">
-        <v>5.098442394121451</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5.722725224225529</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.645616427597542</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.18960332772531</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7149525224.390117</v>
+        <v>4648305260.331294</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1666995237577705</v>
+        <v>0.2975359496724249</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2153219961075978</v>
+        <v>0.701088872164725</v>
       </c>
       <c r="I53" t="n">
-        <v>4.336058484720112</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>7.415941355897608</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.7595414678453184</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.774888001008761</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5017659200.082235</v>
+        <v>9645911609.221334</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2886849449592471</v>
+        <v>0.165105091620113</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5896828948683701</v>
+        <v>0.2942996744244899</v>
       </c>
       <c r="I54" t="n">
-        <v>5.269978773736751</v>
+        <v>6</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9744676187619437</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2859475109078071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.282165585600532</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8614722438755269</v>
+      </c>
+      <c r="N54" t="n">
+        <v>13.94727929191001</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>9668104228.216919</v>
+        <v>7698195483.800155</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1536179270456534</v>
+        <v>0.1718314315067268</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1751759011551065</v>
+        <v>0.3149610402605622</v>
       </c>
       <c r="I55" t="n">
-        <v>5.403395957881986</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3164783162604135</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.553770553318268</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6393828687533172</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.233886821748076</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>9846685068.462763</v>
+        <v>13066805297.0036</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1558862225538441</v>
+        <v>0.09582054615041345</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1821370702582469</v>
+        <v>0.08147763972708731</v>
       </c>
       <c r="I56" t="n">
-        <v>5.584462136364803</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.60981777523412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.732724534418527</v>
+      </c>
+      <c r="N56" t="n">
+        <v>7.04467291313642</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>6584340751.449576</v>
+        <v>14212935028.82962</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.165891418933555</v>
+        <v>0.06929537340473593</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2128420042749133</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>3.973926127754476</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5.433348645419544</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6033902964963318</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6.634457284507091</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>3955065753.218703</v>
+        <v>7321601992.130587</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2880949954049962</v>
+        <v>0.2210968339633734</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5878723994568889</v>
+        <v>0.4662900721526063</v>
       </c>
       <c r="I58" t="n">
-        <v>4.145462507369778</v>
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9685562236996895</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5158109649299203</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.512029039622645</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8661160462026769</v>
+      </c>
+      <c r="N58" t="n">
+        <v>13.81029188443089</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>5167416767.547172</v>
+        <v>4831852077.646303</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2635906607251543</v>
+        <v>0.3268916648560574</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5126710789718033</v>
+        <v>0.7912611175482264</v>
       </c>
       <c r="I59" t="n">
-        <v>4.955495411108699</v>
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.956373765834364</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3117675218016734</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.501369457725674</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.964835870440936</v>
+      </c>
+      <c r="N59" t="n">
+        <v>13.79534795109305</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>4290180013.776371</v>
+        <v>12417120672.91174</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3577851127624062</v>
+        <v>0.08184854981856902</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8017443089990423</v>
+        <v>0.03855971816219505</v>
       </c>
       <c r="I60" t="n">
-        <v>5.584462136364803</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>7.380599192896226</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6776981065759983</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.173362938623739</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>8535528315.165792</v>
+        <v>11680285612.6209</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1239798546646196</v>
+        <v>0.08589056837068978</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.08421965978774582</v>
+        <v>0.05097562717502385</v>
       </c>
       <c r="I61" t="n">
-        <v>3.850038742476759</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>7.418946773303494</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6743213887423428</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.067481001543362</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>4553146802.670659</v>
+        <v>4021634567.10418</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.330793035075558</v>
+        <v>0.3790709858299536</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7189083572701912</v>
+        <v>0.9515408622374658</v>
       </c>
       <c r="I62" t="n">
-        <v>5.47963434882212</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.051934215978244</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7862191364906147</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.67244851383405</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>7168058166.158742</v>
+        <v>6366379109.818177</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2050036084999394</v>
+        <v>0.2452188933568843</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3328733514175349</v>
+        <v>0.5403860444421804</v>
       </c>
       <c r="I63" t="n">
-        <v>5.346217164676885</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>7.704180876897138</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.7928013565622651</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8.151846254348165</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>11484646142.45822</v>
+        <v>13192197884.12478</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1190564831549379</v>
+        <v>0.09451265444558025</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.0691103314340451</v>
+        <v>0.07746017563174751</v>
       </c>
       <c r="I64" t="n">
-        <v>4.974555008843732</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.723966386637984</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.731603307502408</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.908099763410177</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>5147657764.665619</v>
+        <v>4343690568.761815</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2345802392475948</v>
+        <v>0.2309617487983205</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4236410346369929</v>
+        <v>0.4965922302032526</v>
       </c>
       <c r="I65" t="n">
-        <v>4.393237277925213</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.288816074456512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.5226924844694909</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6.165033614933306</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>3910104627.274085</v>
+        <v>9725946882.070465</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3148543114198625</v>
+        <v>0.1252337036967971</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6699940291965877</v>
+        <v>0.1718263313936037</v>
       </c>
       <c r="I66" t="n">
-        <v>4.479005467732863</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7.899729377253748</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7253636757106655</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.607544136959562</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>10126658863.95383</v>
+        <v>7361797410.257051</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.118726228082949</v>
+        <v>0.1369862675920591</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.06809681207777814</v>
+        <v>0.2079268000355573</v>
       </c>
       <c r="I67" t="n">
-        <v>4.374177680190178</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.960208477556179</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.608429641382972</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-15.12880130521562</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>3704228815.995299</v>
+        <v>8714690615.098711</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3153822288070777</v>
+        <v>0.1541933189999745</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6716141541722017</v>
+        <v>0.2607818727931163</v>
       </c>
       <c r="I68" t="n">
-        <v>4.250290294912461</v>
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9629068403646606</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3155517928801297</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.761953606580593</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.6167399127088524</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.572844647596455</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>6830619357.318046</v>
+        <v>13761751741.89165</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2086118528143965</v>
+        <v>0.08945905456588148</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3439466876507034</v>
+        <v>0.06193698208760565</v>
       </c>
       <c r="I69" t="n">
-        <v>5.184210583929101</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>7.420347083236567</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.728215341963746</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7.143959756038353</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6555858038.784359</v>
+        <v>12231331213.54929</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2025716118536109</v>
+        <v>0.08630411126718902</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.3254098001067683</v>
+        <v>0.0522459110467152</v>
       </c>
       <c r="I70" t="n">
-        <v>1.252797075477853</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>7.405100659444015</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6875996284253015</v>
+      </c>
+      <c r="N70" t="n">
+        <v>6.346891909062016</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>4401770738.735136</v>
+        <v>7640461466.453293</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2481468697104093</v>
+        <v>0.1964423846111907</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.4652756490293646</v>
+        <v>0.3905587522759352</v>
       </c>
       <c r="I71" t="n">
-        <v>3.973926127754476</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>8.217312425472091</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7819188515128733</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.421064604785375</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>9905575203.434937</v>
+        <v>4852684231.556629</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1234915797293442</v>
+        <v>0.2871638486052888</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.08272119348077496</v>
+        <v>0.6692287850669409</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8665504719060152</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>7.657956051564415</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7615933605878629</v>
+      </c>
+      <c r="N72" t="n">
+        <v>7.573911160192844</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>9182731502.82379</v>
+        <v>7243056863.609804</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.145193127947823</v>
+        <v>0.2064973005409466</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1493210462791818</v>
+        <v>0.4214445385992046</v>
       </c>
       <c r="I73" t="n">
-        <v>4.850667623566015</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7.690401505953687</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.7809557027739475</v>
+      </c>
+      <c r="N73" t="n">
+        <v>7.928712549525264</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>8234220090.935723</v>
+        <v>8638355428.863136</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.144103953610154</v>
+        <v>0.1176524083049631</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1459784805861594</v>
+        <v>0.1485387901389991</v>
       </c>
       <c r="I74" t="n">
-        <v>4.316998886985078</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.406528274764474</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.5287636148122169</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6.168744021479863</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>11271060007.16648</v>
+        <v>11069530712.1552</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1320029810021421</v>
+        <v>0.09370572854195056</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1088418216576085</v>
+        <v>0.07498153322316568</v>
       </c>
       <c r="I75" t="n">
-        <v>5.412925756749503</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>7.511899121013073</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6830205794751366</v>
+      </c>
+      <c r="N75" t="n">
+        <v>6.14851246848966</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>10561236650.03655</v>
+        <v>9941975813.083399</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1101205472936709</v>
+        <v>0.1588710533696357</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.04168684961676011</v>
+        <v>0.2751505164722559</v>
       </c>
       <c r="I76" t="n">
-        <v>1.174002092242241</v>
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9548861355621538</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2659781875116992</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.503270424569553</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.938384580359971</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.26442118262987</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>8992775999.103775</v>
+        <v>6026621155.462533</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1514641085395373</v>
+        <v>0.1994981896133017</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1685660503731389</v>
+        <v>0.3999452992147787</v>
       </c>
       <c r="I77" t="n">
-        <v>1.33716889075291</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>7.476644621602202</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7219067736487462</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.961490851372722</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>4933990034.531492</v>
+        <v>7670360116.955865</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2537638728974227</v>
+        <v>0.1564047322039056</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.482513662725767</v>
+        <v>0.2675746929585185</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9508844587845297</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7.402492693998287</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7213268543847222</v>
+      </c>
+      <c r="N78" t="n">
+        <v>7.024044393696158</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4345119699.904963</v>
+        <v>4689298513.058445</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2562048520836719</v>
+        <v>0.2977278725404529</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4900047805414876</v>
+        <v>0.7016784035674611</v>
       </c>
       <c r="I79" t="n">
-        <v>4.05016451869461</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7.704378767037747</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7621043232373548</v>
+      </c>
+      <c r="N79" t="n">
+        <v>7.537707697709349</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>7995651157.930267</v>
+        <v>7643251614.502673</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1513520482693567</v>
+        <v>0.1926009052491183</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1682221487572985</v>
+        <v>0.378758841508795</v>
       </c>
       <c r="I80" t="n">
-        <v>4.402767076792729</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7.861161327718337</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7765868509022595</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.670575690326855</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>11504630934.79861</v>
+        <v>10004619327.01057</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09653689599382541</v>
+        <v>0.101323588321166</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.09838138967399801</v>
       </c>
       <c r="I81" t="n">
-        <v>4.040634719827093</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.980538575703438</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-0.6066969053192154</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-15.11447668208775</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9003858458.341682</v>
+        <v>4719127547.178473</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1274223517959773</v>
+        <v>0.2753088207536987</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09478433470859506</v>
+        <v>0.6328135768604706</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9994211262791468</v>
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.9632215456743093</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2579112473439258</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.70431306104439</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5880915542024316</v>
+      </c>
+      <c r="N82" t="n">
+        <v>9.057518023004244</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>5780903387.469158</v>
+        <v>10757735351.83341</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1980094378468986</v>
+        <v>0.1383017402214153</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3114089502950927</v>
+        <v>0.2119675505329504</v>
       </c>
       <c r="I83" t="n">
-        <v>4.164522105104811</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>7.774067353833137</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7795057617246959</v>
+      </c>
+      <c r="N83" t="n">
+        <v>7.816047880660782</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>5093005371.005425</v>
+        <v>10519326996.32013</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2705277217738344</v>
+        <v>0.1506494617530542</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5339602165045004</v>
+        <v>0.2498961708684847</v>
       </c>
       <c r="I84" t="n">
-        <v>5.012674204313799</v>
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9657342672946989</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.241017891678737</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.910620612229433</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.916342646507747</v>
+      </c>
+      <c r="N84" t="n">
+        <v>14.41623231792551</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>4433156964.585688</v>
+        <v>12763029365.89757</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2853870007551694</v>
+        <v>0.09851165925853674</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5795618382360184</v>
+        <v>0.08974395890965482</v>
       </c>
       <c r="I85" t="n">
-        <v>4.60289285301058</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>7.429401432613242</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7338417722210084</v>
+      </c>
+      <c r="N85" t="n">
+        <v>7.247434011806927</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9227582660.351709</v>
+        <v>11117879998.55269</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1459067352260037</v>
+        <v>0.1387693256448929</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1515110347170683</v>
+        <v>0.2134038373779419</v>
       </c>
       <c r="I86" t="n">
-        <v>4.898316617903599</v>
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9558318449116625</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.3225138115887309</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.512115747512731</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.9566826497492775</v>
+      </c>
+      <c r="N86" t="n">
+        <v>13.62153724747282</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>9980903716.439234</v>
+        <v>9778243766.604944</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1089126677186114</v>
+        <v>0.1591203591501608</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03797998957676232</v>
+        <v>0.2759163115440643</v>
       </c>
       <c r="I87" t="n">
-        <v>3.954866530019443</v>
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.962494594289647</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2910752060590139</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.96067792660971</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.9079184108205137</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.19769028980056</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>6821203754.007436</v>
+        <v>12153517291.9282</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1724191436605367</v>
+        <v>0.09526216585621163</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2328749301080717</v>
+        <v>0.07976245736511399</v>
       </c>
       <c r="I88" t="n">
-        <v>4.278879691515011</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>7.587223069608551</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7118964359172146</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.650705648735742</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>7371736014.963092</v>
+        <v>10440879212.87832</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1808623514588341</v>
+        <v>0.1450076558813692</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2587862794206593</v>
+        <v>0.2325661790667077</v>
       </c>
       <c r="I89" t="n">
-        <v>1.217470442450846</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>7.514199971289269</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7843146888479706</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.172093805670144</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>7328779539.603956</v>
+        <v>6889885403.914781</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1629796384985197</v>
+        <v>0.1638571650783241</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2039060451257173</v>
+        <v>0.2904664059231825</v>
       </c>
       <c r="I90" t="n">
-        <v>4.345588283587628</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>7.854866286470198</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7052399203090027</v>
+      </c>
+      <c r="N90" t="n">
+        <v>6.249932119709857</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>4096912791.407301</v>
+        <v>6505581364.122923</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3075307320777046</v>
+        <v>0.1827973540625031</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6475187061811613</v>
+        <v>0.348645174793495</v>
       </c>
       <c r="I91" t="n">
-        <v>4.583833255275547</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.376993167957759</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.718996228041167</v>
+      </c>
+      <c r="N91" t="n">
+        <v>7.002931392865581</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>6241145402.161448</v>
+        <v>8457781360.310555</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2304136528371816</v>
+        <v>0.117376977212798</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4108542030795523</v>
+        <v>0.1476927456848413</v>
       </c>
       <c r="I92" t="n">
-        <v>5.231859578266684</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.125082345982371</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.5284996675708218</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-13.69507569739881</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>9156521322.840261</v>
+        <v>7277425566.429338</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1375988266261344</v>
+        <v>0.1425337065328364</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1260149049366697</v>
+        <v>0.2249669239871845</v>
       </c>
       <c r="I93" t="n">
-        <v>1.026047926084305</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.760575333208557</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.6830205794751366</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.899836256294176</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>11306317657.88174</v>
+        <v>10885875081.24763</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1051804040877089</v>
+        <v>0.1231988857111057</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02652605062639294</v>
+        <v>0.1655759605350247</v>
       </c>
       <c r="I94" t="n">
-        <v>4.326528685852595</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.820378853144072</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7512016857489743</v>
+      </c>
+      <c r="N94" t="n">
+        <v>7.203654861835413</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>5230828689.251081</v>
+        <v>6655233537.310353</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2919431051408877</v>
+        <v>0.1983660757505941</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5996818583665652</v>
+        <v>0.396467773683837</v>
       </c>
       <c r="I95" t="n">
-        <v>5.555872739762253</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.806961374987197</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7469495081075321</v>
+      </c>
+      <c r="N95" t="n">
+        <v>7.132028787163445</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5686457587.03879</v>
+        <v>7254878072.78401</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2740787258402124</v>
+        <v>0.208688196384672</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5448578882155879</v>
+        <v>0.4281743353830433</v>
       </c>
       <c r="I96" t="n">
-        <v>5.670230326172454</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.565201790323194</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.7843146888479706</v>
+      </c>
+      <c r="N96" t="n">
+        <v>8.12109198663622</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>8242029416.315122</v>
+        <v>3847683925.528873</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1903675091105755</v>
+        <v>0.3948469337411015</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2879566452424208</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>5.708349521642521</v>
+        <v>5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9660783626103933</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2827748014530272</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3.564967254880835</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8694019907421072</v>
+      </c>
+      <c r="N97" t="n">
+        <v>13.82307255996131</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>6230669716.460687</v>
+        <v>8244460174.446404</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1715242772661489</v>
+        <v>0.1343935135297563</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.230128675806744</v>
+        <v>0.1999626113226422</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6495029736256254</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.466251010741858</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.700305124936035</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.539851487978843</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>4725142449.189435</v>
+        <v>14630336846.44572</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2954693715613795</v>
+        <v>0.07465895293213014</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6105036127487133</v>
+        <v>0.01647536114356958</v>
       </c>
       <c r="I99" t="n">
-        <v>0.6588909425551968</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>7.533357153705565</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.696550071549228</v>
+      </c>
+      <c r="N99" t="n">
+        <v>6.397644277278995</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>9707693585.609047</v>
+        <v>3886052574.233875</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1200726557467739</v>
+        <v>0.3383726171690396</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.07222886216524989</v>
+        <v>0.8265272741629263</v>
       </c>
       <c r="I100" t="n">
-        <v>4.240760496044945</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.015307002166955</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.4777035541008396</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-12.56937808418375</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>5184410294.331697</v>
+        <v>12522642176.60361</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3279030812547097</v>
+        <v>0.1263400756555914</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.7100393817885804</v>
+        <v>0.1752247852595636</v>
       </c>
       <c r="I101" t="n">
-        <v>6.184839465018357</v>
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.984739952080143</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3982880707065058</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.680480524134314</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8944259904597243</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.20803928506017</v>
       </c>
     </row>
   </sheetData>
